--- a/outputs-r202/test-f__P3.xlsx
+++ b/outputs-r202/test-f__P3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Row</t>
   </si>
@@ -145,7 +145,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,14 +155,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,945 +193,945 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2204460467646651e-14</v>
+        <v>2.2204460175119375e-14</v>
       </c>
       <c r="C2">
-        <v>2.2204460467646651e-14</v>
+        <v>2.2204460175119375e-14</v>
       </c>
       <c r="D2">
-        <v>2.2204460467646651e-14</v>
+        <v>2.2204460175119375e-14</v>
       </c>
       <c r="E2">
-        <v>2.2204460467646651e-14</v>
+        <v>2.2204460175119375e-14</v>
       </c>
       <c r="F2">
-        <v>1.1525621262545783e-08</v>
+        <v>1.9958648704714934e-07</v>
       </c>
       <c r="G2">
-        <v>2.2204460467646651e-14</v>
+        <v>2.2204460175119375e-14</v>
       </c>
       <c r="H2">
-        <v>0.99999998847422322</v>
+        <v>0.99999980041335745</v>
       </c>
       <c r="I2">
-        <v>2.2204460467646651e-14</v>
+        <v>2.2204460175119375e-14</v>
       </c>
       <c r="J2">
-        <v>2.2204460467646651e-14</v>
+        <v>2.2204460175119375e-14</v>
       </c>
       <c r="K2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204460491937016e-14</v>
+        <v>2.2204460490521506e-14</v>
       </c>
       <c r="C3">
-        <v>2.2204460491937016e-14</v>
+        <v>2.2204460490521506e-14</v>
       </c>
       <c r="D3">
-        <v>2.2204460491937016e-14</v>
+        <v>2.2204460490521506e-14</v>
       </c>
       <c r="E3">
-        <v>2.2204460491937016e-14</v>
+        <v>2.2204460490521506e-14</v>
       </c>
       <c r="F3">
-        <v>2.6795402292519459e-10</v>
+        <v>1.8533633796929581e-09</v>
       </c>
       <c r="G3">
-        <v>2.2204460491937016e-14</v>
+        <v>2.2204460490521506e-14</v>
       </c>
       <c r="H3">
-        <v>0.99999999973189058</v>
+        <v>0.99999999814648111</v>
       </c>
       <c r="I3">
-        <v>2.2204460491937016e-14</v>
+        <v>2.2204460490521506e-14</v>
       </c>
       <c r="J3">
-        <v>2.2204460491937016e-14</v>
+        <v>2.2204460490521506e-14</v>
       </c>
       <c r="K3">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204645406678218e-14</v>
+        <v>2.2945517870687849e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204645406678218e-14</v>
+        <v>2.2945517870687849e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204645406678218e-14</v>
+        <v>2.2945517870687855e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204645406678218e-14</v>
+        <v>2.294551787068783e-14</v>
       </c>
       <c r="F4">
-        <v>8.3074284694382948e-07</v>
+        <v>0.0054411895211888273</v>
       </c>
       <c r="G4">
-        <v>2.2204645406678218e-14</v>
+        <v>2.2945517870687858e-14</v>
       </c>
       <c r="H4">
-        <v>0.99999916925699772</v>
+        <v>0.99455881047865047</v>
       </c>
       <c r="I4">
-        <v>2.2204645406678218e-14</v>
+        <v>2.2945517870687865e-14</v>
       </c>
       <c r="J4">
-        <v>2.2204645406678218e-14</v>
+        <v>2.2945517870687865e-14</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2204460722239624e-14</v>
+        <v>2.220920134023271e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204460722239624e-14</v>
+        <v>2.220920134023271e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204460722239624e-14</v>
+        <v>2.220920134023271e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204460722239624e-14</v>
+        <v>2.220920134023271e-14</v>
       </c>
       <c r="F5">
-        <v>2.7557452236536057e-08</v>
+        <v>9.0915023799546487e-05</v>
       </c>
       <c r="G5">
-        <v>2.2204460722239624e-14</v>
+        <v>2.220920134023271e-14</v>
       </c>
       <c r="H5">
-        <v>0.99999997244239236</v>
+        <v>0.99990908497604503</v>
       </c>
       <c r="I5">
-        <v>2.2204460722239624e-14</v>
+        <v>2.220920134023271e-14</v>
       </c>
       <c r="J5">
-        <v>2.2204460722239624e-14</v>
+        <v>2.220920134023271e-14</v>
       </c>
       <c r="K5">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2204682106726559e-14</v>
+        <v>2.2208210145591558e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204682106726559e-14</v>
+        <v>2.2208210145591558e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204682106726559e-14</v>
+        <v>2.2208210145591558e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204682106726559e-14</v>
+        <v>2.2208210145591558e-14</v>
       </c>
       <c r="F6">
-        <v>4.8008541436763484e-06</v>
+        <v>0.00018990357086947816</v>
       </c>
       <c r="G6">
-        <v>2.2204682106726556e-14</v>
+        <v>2.2208210145591558e-14</v>
       </c>
       <c r="H6">
-        <v>0.9999951991457009</v>
+        <v>0.99981009642897511</v>
       </c>
       <c r="I6">
-        <v>2.2204682106726556e-14</v>
+        <v>2.2208210145591558e-14</v>
       </c>
       <c r="J6">
-        <v>2.2204682106726556e-14</v>
+        <v>2.2208210145591558e-14</v>
       </c>
       <c r="K6">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2204543794543874e-14</v>
+        <v>2.2196135203705009e-14</v>
       </c>
       <c r="C7">
-        <v>2.2204543794543874e-14</v>
+        <v>2.2196135203705009e-14</v>
       </c>
       <c r="D7">
-        <v>2.2204543794543874e-14</v>
+        <v>0.046384479478405127</v>
       </c>
       <c r="E7">
-        <v>2.2204543794543874e-14</v>
+        <v>2.2196135203705009e-14</v>
       </c>
       <c r="F7">
-        <v>5.5144834179166256e-07</v>
+        <v>0.00013482109642743971</v>
       </c>
       <c r="G7">
-        <v>2.2204543794543877e-14</v>
+        <v>2.2196135203705009e-14</v>
       </c>
       <c r="H7">
-        <v>0.9999994485515028</v>
+        <v>0.95348069942503433</v>
       </c>
       <c r="I7">
-        <v>2.2204543794543877e-14</v>
+        <v>2.2196135203705009e-14</v>
       </c>
       <c r="J7">
-        <v>2.2204543794543877e-14</v>
+        <v>2.2196135203705009e-14</v>
       </c>
       <c r="K7">
         <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.1725257963371322e-13</v>
+        <v>2.7575252367070617e-13</v>
       </c>
       <c r="C8">
-        <v>2.1725257963371322e-13</v>
+        <v>2.7575252367070617e-13</v>
       </c>
       <c r="D8">
-        <v>2.1725257963371474e-13</v>
+        <v>2.7575252367070652e-13</v>
       </c>
       <c r="E8">
-        <v>2.1725257963371262e-13</v>
+        <v>2.7575252367070632e-13</v>
       </c>
       <c r="F8">
-        <v>0.0059538371433543649</v>
+        <v>0.051893302883516436</v>
       </c>
       <c r="G8">
-        <v>2.1725257963371211e-13</v>
+        <v>2.7575252367071304e-13</v>
       </c>
       <c r="H8">
-        <v>0.99404616285512493</v>
+        <v>0.94810669711455342</v>
       </c>
       <c r="I8">
-        <v>2.1725257963371252e-13</v>
+        <v>2.7575252367071248e-13</v>
       </c>
       <c r="J8">
-        <v>2.1725257963371211e-13</v>
+        <v>2.7575252367071208e-13</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2204828056977083e-14</v>
+        <v>2.2204490851104951e-14</v>
       </c>
       <c r="C9">
-        <v>2.2204828056977083e-14</v>
+        <v>2.2204490851104951e-14</v>
       </c>
       <c r="D9">
-        <v>2.2204828056977083e-14</v>
+        <v>2.2204490851104951e-14</v>
       </c>
       <c r="E9">
-        <v>2.2204828056977083e-14</v>
+        <v>2.2204490851104951e-14</v>
       </c>
       <c r="F9">
-        <v>0.99999961099380974</v>
+        <v>0.99999998486120345</v>
       </c>
       <c r="G9">
-        <v>2.220482805697708e-14</v>
+        <v>2.2204490851104951e-14</v>
       </c>
       <c r="H9">
-        <v>3.8900603489771318e-07</v>
+        <v>1.5138641090018114e-08</v>
       </c>
       <c r="I9">
-        <v>2.220482805697708e-14</v>
+        <v>2.2204490851104948e-14</v>
       </c>
       <c r="J9">
-        <v>2.220482805697708e-14</v>
+        <v>2.2204490851104948e-14</v>
       </c>
       <c r="K9">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2238365894857832e-14</v>
+        <v>2.2195952804267702e-14</v>
       </c>
       <c r="C10">
-        <v>2.2238365894857832e-14</v>
+        <v>2.2195952804267702e-14</v>
       </c>
       <c r="D10">
-        <v>2.2238365894857832e-14</v>
+        <v>0.046406580048360881</v>
       </c>
       <c r="E10">
-        <v>2.2238365894857832e-14</v>
+        <v>2.2195952804267702e-14</v>
       </c>
       <c r="F10">
-        <v>9.3197061340855717e-05</v>
+        <v>0.00014224581824053109</v>
       </c>
       <c r="G10">
-        <v>2.2238365894857832e-14</v>
+        <v>2.2195952804267702e-14</v>
       </c>
       <c r="H10">
-        <v>0.99990680293850354</v>
+        <v>0.95345117413326541</v>
       </c>
       <c r="I10">
-        <v>2.2238365894857832e-14</v>
+        <v>2.2195952804267702e-14</v>
       </c>
       <c r="J10">
-        <v>2.2238365894857832e-14</v>
+        <v>2.2195952804267702e-14</v>
       </c>
       <c r="K10">
         <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2204864596551233e-14</v>
+        <v>2.2210566810048128e-14</v>
       </c>
       <c r="C11">
-        <v>2.2204864596551233e-14</v>
+        <v>2.2210566810048128e-14</v>
       </c>
       <c r="D11">
-        <v>2.2204864596551233e-14</v>
+        <v>2.2210566810048128e-14</v>
       </c>
       <c r="E11">
-        <v>2.2204864596551233e-14</v>
+        <v>2.2210566810048128e-14</v>
       </c>
       <c r="F11">
-        <v>1.1132856662550174e-05</v>
+        <v>0.00051696993158841507</v>
       </c>
       <c r="G11">
-        <v>2.2204864596551233e-14</v>
+        <v>2.2210566810048128e-14</v>
       </c>
       <c r="H11">
-        <v>0.99998886714318203</v>
+        <v>0.99948303006825612</v>
       </c>
       <c r="I11">
-        <v>2.2204864596551233e-14</v>
+        <v>2.2210566810048128e-14</v>
       </c>
       <c r="J11">
-        <v>2.2204864596551233e-14</v>
+        <v>2.2210566810048128e-14</v>
       </c>
       <c r="K11">
         <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2209818560407048e-14</v>
+        <v>3.8795879142345716e-14</v>
       </c>
       <c r="C12">
-        <v>2.2209818560407048e-14</v>
+        <v>3.8795879142345716e-14</v>
       </c>
       <c r="D12">
-        <v>2.2209818560407048e-14</v>
+        <v>3.8795879142345835e-14</v>
       </c>
       <c r="E12">
-        <v>2.2209818560407048e-14</v>
+        <v>3.8795879142345716e-14</v>
       </c>
       <c r="F12">
-        <v>6.9432609083387278e-05</v>
+        <v>0.0047077216106166204</v>
       </c>
       <c r="G12">
-        <v>2.2209818560407048e-14</v>
+        <v>3.8795879142348152e-14</v>
       </c>
       <c r="H12">
-        <v>0.99993056739076125</v>
+        <v>0.99529227838911194</v>
       </c>
       <c r="I12">
-        <v>2.2209818560407048e-14</v>
+        <v>3.8795879142348253e-14</v>
       </c>
       <c r="J12">
-        <v>2.2209818560407048e-14</v>
+        <v>3.8795879142348133e-14</v>
       </c>
       <c r="K12">
         <v>7</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.2257447712147354e-14</v>
+        <v>2.2196925478927759e-14</v>
       </c>
       <c r="C13">
-        <v>2.2257447712147354e-14</v>
+        <v>2.2196925478927759e-14</v>
       </c>
       <c r="D13">
-        <v>2.2257447712147354e-14</v>
+        <v>0.045508700653758144</v>
       </c>
       <c r="E13">
-        <v>2.2257447712147354e-14</v>
+        <v>2.2196925478927759e-14</v>
       </c>
       <c r="F13">
-        <v>7.8678715275472526e-05</v>
+        <v>7.3931881990450978e-05</v>
       </c>
       <c r="G13">
-        <v>2.2257447712147357e-14</v>
+        <v>2.2196925478927759e-14</v>
       </c>
       <c r="H13">
-        <v>0.99992132128456879</v>
+        <v>0.9544173674641182</v>
       </c>
       <c r="I13">
-        <v>2.2257447712147357e-14</v>
+        <v>2.2196925478927759e-14</v>
       </c>
       <c r="J13">
-        <v>2.2257447712147357e-14</v>
+        <v>2.2196925478927759e-14</v>
       </c>
       <c r="K13">
         <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.2253063113020655e-14</v>
+        <v>2.2197986292856419e-14</v>
       </c>
       <c r="C14">
-        <v>2.2253063113020655e-14</v>
+        <v>2.2197986292856419e-14</v>
       </c>
       <c r="D14">
-        <v>2.2253063113020655e-14</v>
+        <v>0.044113964883297871</v>
       </c>
       <c r="E14">
-        <v>2.2253063113020655e-14</v>
+        <v>2.2197986292856419e-14</v>
       </c>
       <c r="F14">
-        <v>0.00062322678081856296</v>
+        <v>3.0780516923201963e-05</v>
       </c>
       <c r="G14">
-        <v>2.2253063113020655e-14</v>
+        <v>2.2197986292856419e-14</v>
       </c>
       <c r="H14">
-        <v>0.99937677321902574</v>
+        <v>0.95585525459964582</v>
       </c>
       <c r="I14">
-        <v>2.2253063113020655e-14</v>
+        <v>2.2197986292856419e-14</v>
       </c>
       <c r="J14">
-        <v>2.2253063113020655e-14</v>
+        <v>2.2197986292856419e-14</v>
       </c>
       <c r="K14">
         <v>7</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.220719270150061e-14</v>
+        <v>2.2211238206602623e-14</v>
       </c>
       <c r="C15">
-        <v>2.220719270150061e-14</v>
+        <v>2.2211238206602623e-14</v>
       </c>
       <c r="D15">
-        <v>2.220719270150061e-14</v>
+        <v>2.2211238206602623e-14</v>
       </c>
       <c r="E15">
-        <v>2.220719270150061e-14</v>
+        <v>2.2211238206602623e-14</v>
       </c>
       <c r="F15">
-        <v>1.0046232063282907e-05</v>
+        <v>2.3805583831097365e-05</v>
       </c>
       <c r="G15">
-        <v>2.220719270150061e-14</v>
+        <v>2.2211238206602623e-14</v>
       </c>
       <c r="H15">
-        <v>0.99998995376778133</v>
+        <v>0.99997619441601349</v>
       </c>
       <c r="I15">
-        <v>2.220719270150061e-14</v>
+        <v>2.2211238206602623e-14</v>
       </c>
       <c r="J15">
-        <v>2.220719270150061e-14</v>
+        <v>2.2211238206602623e-14</v>
       </c>
       <c r="K15">
         <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.3796737149413472e-14</v>
+        <v>2.2409702107022395e-14</v>
       </c>
       <c r="C16">
-        <v>2.3796737149413472e-14</v>
+        <v>2.2409702107022395e-14</v>
       </c>
       <c r="D16">
-        <v>2.3796737149413497e-14</v>
+        <v>2.2409702107022395e-14</v>
       </c>
       <c r="E16">
-        <v>2.3796737149413456e-14</v>
+        <v>2.2409702107022395e-14</v>
       </c>
       <c r="F16">
-        <v>0.0045746534983078669</v>
+        <v>0.40719896132864325</v>
       </c>
       <c r="G16">
-        <v>2.3796737149413749e-14</v>
+        <v>0.084085253067398683</v>
       </c>
       <c r="H16">
-        <v>0.9954253465015257</v>
+        <v>0.50871578560382358</v>
       </c>
       <c r="I16">
-        <v>2.3796737149413775e-14</v>
+        <v>2.2409702107022398e-14</v>
       </c>
       <c r="J16">
-        <v>2.3796737149413775e-14</v>
+        <v>2.2409702107022398e-14</v>
       </c>
       <c r="K16">
         <v>7</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.2204488665203291e-14</v>
+        <v>2.222051406087415e-14</v>
       </c>
       <c r="C17">
-        <v>2.2204488665203291e-14</v>
+        <v>2.222051406087415e-14</v>
       </c>
       <c r="D17">
-        <v>2.2204488665203291e-14</v>
+        <v>2.222051406087415e-14</v>
       </c>
       <c r="E17">
-        <v>2.2204488665203291e-14</v>
+        <v>2.222051406087415e-14</v>
       </c>
       <c r="F17">
-        <v>2.4075372476256972e-07</v>
+        <v>0.00020325697431698659</v>
       </c>
       <c r="G17">
-        <v>2.2204488665203291e-14</v>
+        <v>2.2220514060874154e-14</v>
       </c>
       <c r="H17">
-        <v>0.99999975924611983</v>
+        <v>0.99979674302552746</v>
       </c>
       <c r="I17">
-        <v>2.2204488665203291e-14</v>
+        <v>2.2220514060874154e-14</v>
       </c>
       <c r="J17">
-        <v>2.2204488665203291e-14</v>
+        <v>2.2220514060874154e-14</v>
       </c>
       <c r="K17">
         <v>7</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.2204460863737952e-14</v>
+        <v>2.2204474989676349e-14</v>
       </c>
       <c r="C18">
-        <v>2.2204460863737952e-14</v>
+        <v>2.2204474989676349e-14</v>
       </c>
       <c r="D18">
-        <v>2.2204460863737952e-14</v>
+        <v>2.2204474989676349e-14</v>
       </c>
       <c r="E18">
-        <v>2.2204460863737952e-14</v>
+        <v>2.2204474989676349e-14</v>
       </c>
       <c r="F18">
-        <v>7.8792453306195658e-08</v>
+        <v>2.6071978555683584e-07</v>
       </c>
       <c r="G18">
-        <v>2.2204460863737952e-14</v>
+        <v>2.2204474989676349e-14</v>
       </c>
       <c r="H18">
-        <v>0.99999992120739123</v>
+        <v>0.99999973928005903</v>
       </c>
       <c r="I18">
-        <v>2.2204460863737952e-14</v>
+        <v>2.2204474989676349e-14</v>
       </c>
       <c r="J18">
-        <v>2.2204460863737952e-14</v>
+        <v>2.2204474989676349e-14</v>
       </c>
       <c r="K18">
         <v>7</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.2204520997404726e-14</v>
+        <v>2.2206011733891521e-14</v>
       </c>
       <c r="C19">
-        <v>2.2204520997404726e-14</v>
+        <v>2.2206011733891521e-14</v>
       </c>
       <c r="D19">
-        <v>2.2204520997404726e-14</v>
+        <v>2.2206011733891521e-14</v>
       </c>
       <c r="E19">
-        <v>2.2204520997404726e-14</v>
+        <v>2.2206011733891521e-14</v>
       </c>
       <c r="F19">
-        <v>5.1557531171158063e-07</v>
+        <v>1.2614643031636862e-05</v>
       </c>
       <c r="G19">
-        <v>2.2204520997404723e-14</v>
+        <v>2.2206011733891524e-14</v>
       </c>
       <c r="H19">
-        <v>0.9999994844245329</v>
+        <v>0.99998738535681286</v>
       </c>
       <c r="I19">
-        <v>2.2204520997404723e-14</v>
+        <v>2.2206011733891524e-14</v>
       </c>
       <c r="J19">
-        <v>2.2204520997404723e-14</v>
+        <v>2.2206011733891524e-14</v>
       </c>
       <c r="K19">
         <v>7</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3.1656288884343827e-11</v>
+        <v>4.6652352721484504e-11</v>
       </c>
       <c r="C20">
-        <v>3.1656288884343827e-11</v>
+        <v>4.6652352721484504e-11</v>
       </c>
       <c r="D20">
-        <v>3.165628888434384e-11</v>
+        <v>4.6652352721484581e-11</v>
       </c>
       <c r="E20">
-        <v>3.1656288884343795e-11</v>
+        <v>4.6652352721484478e-11</v>
       </c>
       <c r="F20">
-        <v>0.79971537440819251</v>
+        <v>0.7915394434049261</v>
       </c>
       <c r="G20">
-        <v>3.1656288884344182e-11</v>
+        <v>4.6652352721484478e-11</v>
       </c>
       <c r="H20">
-        <v>0.20028462537021358</v>
+        <v>0.20846055626850746</v>
       </c>
       <c r="I20">
-        <v>3.1656288884344189e-11</v>
+        <v>4.6652352721484549e-11</v>
       </c>
       <c r="J20">
-        <v>3.1656288884344189e-11</v>
+        <v>4.6652352721484549e-11</v>
       </c>
       <c r="K20">
         <v>5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.2204454848718515e-14</v>
+        <v>2.2211479720854951e-14</v>
       </c>
       <c r="C21">
-        <v>2.2204454848718515e-14</v>
+        <v>2.2211479720854951e-14</v>
       </c>
       <c r="D21">
-        <v>2.2204454848718515e-14</v>
+        <v>2.2211479720854951e-14</v>
       </c>
       <c r="E21">
-        <v>2.2204454848718515e-14</v>
+        <v>2.2211479720854951e-14</v>
       </c>
       <c r="F21">
-        <v>7.7343293819456424e-06</v>
+        <v>0.00039433628047442533</v>
       </c>
       <c r="G21">
-        <v>2.2204454848718515e-14</v>
+        <v>2.2211479720854954e-14</v>
       </c>
       <c r="H21">
-        <v>0.99999226567046262</v>
+        <v>0.9996056637193701</v>
       </c>
       <c r="I21">
-        <v>2.2204454848718515e-14</v>
+        <v>2.2211479720854954e-14</v>
       </c>
       <c r="J21">
-        <v>2.2204454848718515e-14</v>
+        <v>2.2211479720854954e-14</v>
       </c>
       <c r="K21">
         <v>7</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.2205024939954313e-14</v>
+        <v>2.2205609483263533e-14</v>
       </c>
       <c r="C22">
-        <v>2.2205024939954313e-14</v>
+        <v>2.2205609483263533e-14</v>
       </c>
       <c r="D22">
-        <v>2.2205024939954313e-14</v>
+        <v>2.2205609483263533e-14</v>
       </c>
       <c r="E22">
-        <v>2.2205024939954313e-14</v>
+        <v>2.2205609483263533e-14</v>
       </c>
       <c r="F22">
-        <v>0.00015813042835725224</v>
+        <v>0.00011523793389694145</v>
       </c>
       <c r="G22">
-        <v>2.2205024939954313e-14</v>
+        <v>2.2205609483263533e-14</v>
       </c>
       <c r="H22">
-        <v>0.99984186957148735</v>
+        <v>0.99988476206594767</v>
       </c>
       <c r="I22">
-        <v>2.2205024939954313e-14</v>
+        <v>2.2205609483263533e-14</v>
       </c>
       <c r="J22">
-        <v>2.2205024939954313e-14</v>
+        <v>2.2205609483263533e-14</v>
       </c>
       <c r="K22">
         <v>7</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2.6753198691681253e-13</v>
+        <v>4.2178533873227555e-14</v>
       </c>
       <c r="C23">
-        <v>2.6753198691681253e-13</v>
+        <v>4.2178533873227555e-14</v>
       </c>
       <c r="D23">
-        <v>2.6753198691681506e-13</v>
+        <v>4.2178533873227669e-14</v>
       </c>
       <c r="E23">
-        <v>2.6753198691681218e-13</v>
+        <v>4.2178533873227499e-14</v>
       </c>
       <c r="F23">
-        <v>0.0055786901783377776</v>
+        <v>0.0027747094808230348</v>
       </c>
       <c r="G23">
-        <v>2.675319869168454e-13</v>
+        <v>4.2178533873230843e-14</v>
       </c>
       <c r="H23">
-        <v>0.99442130981978949</v>
+        <v>0.99722529051888165</v>
       </c>
       <c r="I23">
-        <v>2.675319869168454e-13</v>
+        <v>4.2178533873230887e-14</v>
       </c>
       <c r="J23">
-        <v>2.6753198691684636e-13</v>
+        <v>4.2178533873230856e-14</v>
       </c>
       <c r="K23">
         <v>7</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.2205128721777418e-14</v>
+        <v>2.2204521457601481e-14</v>
       </c>
       <c r="C24">
-        <v>2.2205128721777418e-14</v>
+        <v>2.2204521457601481e-14</v>
       </c>
       <c r="D24">
-        <v>2.2205128721777418e-14</v>
+        <v>2.2204521457601481e-14</v>
       </c>
       <c r="E24">
-        <v>2.2205128721777418e-14</v>
+        <v>2.2204521457601481e-14</v>
       </c>
       <c r="F24">
-        <v>1.7778286385176047e-06</v>
+        <v>8.6385280253058186e-08</v>
       </c>
       <c r="G24">
-        <v>2.2205128721777418e-14</v>
+        <v>2.2204521457601481e-14</v>
       </c>
       <c r="H24">
-        <v>0.99999822217120615</v>
+        <v>0.99999991361456431</v>
       </c>
       <c r="I24">
-        <v>2.2205128721777418e-14</v>
+        <v>2.2204521457601481e-14</v>
       </c>
       <c r="J24">
-        <v>2.2205128721777418e-14</v>
+        <v>2.2204521457601481e-14</v>
       </c>
       <c r="K24">
         <v>7</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2.2204460785335446e-14</v>
+        <v>2.2204584871058947e-14</v>
       </c>
       <c r="C25">
-        <v>2.2204460785335446e-14</v>
+        <v>2.2204584871058947e-14</v>
       </c>
       <c r="D25">
-        <v>2.2204460785335446e-14</v>
+        <v>2.2204584871058947e-14</v>
       </c>
       <c r="E25">
-        <v>2.2204460785335446e-14</v>
+        <v>2.2204584871058947e-14</v>
       </c>
       <c r="F25">
-        <v>5.4372222887645937e-08</v>
+        <v>4.8482768845206146e-06</v>
       </c>
       <c r="G25">
-        <v>2.2204460785335446e-14</v>
+        <v>2.2204584871058947e-14</v>
       </c>
       <c r="H25">
-        <v>0.99999994562762162</v>
+        <v>0.99999515172296005</v>
       </c>
       <c r="I25">
-        <v>2.2204460785335446e-14</v>
+        <v>2.2204584871058947e-14</v>
       </c>
       <c r="J25">
-        <v>2.2204460785335446e-14</v>
+        <v>2.2204584871058947e-14</v>
       </c>
       <c r="K25">
         <v>7</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2.2204457917463975e-14</v>
+        <v>2.220448112319601e-14</v>
       </c>
       <c r="C26">
-        <v>2.2204457917463975e-14</v>
+        <v>2.220448112319601e-14</v>
       </c>
       <c r="D26">
-        <v>2.2204457917463975e-14</v>
+        <v>2.220448112319601e-14</v>
       </c>
       <c r="E26">
-        <v>2.2204457917463975e-14</v>
+        <v>2.220448112319601e-14</v>
       </c>
       <c r="F26">
-        <v>2.2699935044178926e-06</v>
+        <v>2.9844331097249148e-06</v>
       </c>
       <c r="G26">
-        <v>2.2204457917463975e-14</v>
+        <v>2.2204481123196014e-14</v>
       </c>
       <c r="H26">
-        <v>0.99999773000634018</v>
+        <v>0.99999701556673481</v>
       </c>
       <c r="I26">
-        <v>2.2204457917463975e-14</v>
+        <v>2.2204481123196014e-14</v>
       </c>
       <c r="J26">
-        <v>2.2204457917463975e-14</v>
+        <v>2.2204481123196014e-14</v>
       </c>
       <c r="K26">
         <v>7</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2.2207664881386727e-14</v>
+        <v>2.2219251830559876e-14</v>
       </c>
       <c r="C27">
-        <v>2.2207664881386727e-14</v>
+        <v>2.2219251830559876e-14</v>
       </c>
       <c r="D27">
-        <v>2.2207664881386727e-14</v>
+        <v>2.2219251830559876e-14</v>
       </c>
       <c r="E27">
-        <v>2.2207664881386727e-14</v>
+        <v>2.2219251830559876e-14</v>
       </c>
       <c r="F27">
-        <v>2.660783108570933e-05</v>
+        <v>8.2650533763884156e-05</v>
       </c>
       <c r="G27">
-        <v>2.2207664881386724e-14</v>
+        <v>2.2219251830559883e-14</v>
       </c>
       <c r="H27">
-        <v>0.99997339216875891</v>
+        <v>0.99991734946608057</v>
       </c>
       <c r="I27">
-        <v>2.2207664881386724e-14</v>
+        <v>2.2219251830559883e-14</v>
       </c>
       <c r="J27">
-        <v>2.2207664881386724e-14</v>
+        <v>2.2219251830559883e-14</v>
       </c>
       <c r="K27">
         <v>7</v>
